--- a/hisobotlar/Guruh_statistikasi_2025_01_01-2025_01_31.xlsx
+++ b/hisobotlar/Guruh_statistikasi_2025_01_01-2025_01_31.xlsx
@@ -4,8 +4,8 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Xabarlar" sheetId="1" r:id="rId1"/>
-    <sheet name="Umumiy statistika" sheetId="2" r:id="rId2"/>
-    <sheet name="Foydalanuvchilar" sheetId="3" r:id="rId3"/>
+    <sheet name="Javob statistikasi" sheetId="2" r:id="rId2"/>
+    <sheet name="Xodimlar" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -399,48 +399,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Vaqt</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Chat ID</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Foydalanuvchi ID</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Username</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Ism</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Familiya</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Xabar turi</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Xabar</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Reply message ID</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Javob vaqti (daqiqa)</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>22.01.2025 02:54:21</v>
+      </c>
+      <c r="B2">
+        <v>-4693846362</v>
+      </c>
+      <c r="C2">
+        <v>6368348552</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Zufar_Xorazmiy</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Zufarbek</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Bobojonov</v>
+      </c>
+      <c r="G2" t="str">
+        <v>text</v>
+      </c>
+      <c r="H2" t="str">
+        <v>/statistika</v>
+      </c>
+      <c r="I2" t="str">
+        <v>-</v>
+      </c>
+      <c r="J2" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>22.01.2025 03:08:34</v>
+      </c>
+      <c r="B3">
+        <v>-4693846362</v>
+      </c>
+      <c r="C3">
+        <v>6368348552</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Zufar_Xorazmiy</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Zufarbek</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Bobojonov</v>
+      </c>
+      <c r="G3" t="str">
+        <v>text</v>
+      </c>
+      <c r="H3" t="str">
+        <v>/statistika</v>
+      </c>
+      <c r="I3" t="str">
+        <v>-</v>
+      </c>
+      <c r="J3" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>22.01.2025 03:10:57</v>
+      </c>
+      <c r="B4">
+        <v>-4693846362</v>
+      </c>
+      <c r="C4">
+        <v>6368348552</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Zufar_Xorazmiy</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Zufarbek</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Bobojonov</v>
+      </c>
+      <c r="G4" t="str">
+        <v>text</v>
+      </c>
+      <c r="H4" t="str">
+        <v>/statistika</v>
+      </c>
+      <c r="I4" t="str">
+        <v>-</v>
+      </c>
+      <c r="J4" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>22.01.2025 03:13:54</v>
+      </c>
+      <c r="B5">
+        <v>-4693846362</v>
+      </c>
+      <c r="C5">
+        <v>6368348552</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Zufar_Xorazmiy</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Zufarbek</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Bobojonov</v>
+      </c>
+      <c r="G5" t="str">
+        <v>text</v>
+      </c>
+      <c r="H5" t="str">
+        <v>/email_statistika</v>
+      </c>
+      <c r="I5" t="str">
+        <v>-</v>
+      </c>
+      <c r="J5" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>22.01.2025 03:18:49</v>
+      </c>
+      <c r="B6">
+        <v>-4693846362</v>
+      </c>
+      <c r="C6">
+        <v>6368348552</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Zufar_Xorazmiy</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Zufarbek</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Bobojonov</v>
+      </c>
+      <c r="G6" t="str">
+        <v>text</v>
+      </c>
+      <c r="H6" t="str">
+        <v>/email_statistika</v>
+      </c>
+      <c r="I6" t="str">
+        <v>-</v>
+      </c>
+      <c r="J6" t="str">
+        <v>-</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J6"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Jami xabarlar</v>
+        <v>Jami javoblar</v>
       </c>
       <c r="B1" t="str">
-        <v>Matn xabarlar</v>
+        <v>O'z vaqtida (&lt;= 10 daqiqa)</v>
       </c>
       <c r="C1" t="str">
-        <v>Rasm xabarlar</v>
+        <v>Kechikkan (&gt; 10 daqiqa)</v>
       </c>
       <c r="D1" t="str">
-        <v>Video xabarlar</v>
+        <v>O'rtacha javob vaqti</v>
       </c>
       <c r="E1" t="str">
-        <v>Fayl xabarlar</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Voice xabarlar</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Sticker xabarlar</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Boshqa xabarlar</v>
+        <v>O'z vaqtidalik foizi</v>
       </c>
     </row>
     <row r="2">
@@ -453,25 +637,16 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+      <c r="D2" t="str">
+        <v>0 daqiqa</v>
+      </c>
+      <c r="E2" t="str">
+        <v>NaN%</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
   </ignoredErrors>
 </worksheet>
 </file>
